--- a/biology/Histoire de la zoologie et de la botanique/Martin_Kratt/Martin_Kratt.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Martin_Kratt/Martin_Kratt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Martin W. Kratt est un zoologiste américain né à Warren Township, New Jersey, le 23 décembre 1965. Il est aussi créateur de dessins animés, de documentaires pour enfant sur la nature, qu'il crée avec son frère cadet Chris Kratt.
 </t>
@@ -511,7 +523,9 @@
           <t>Réalisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Avec son frère Chris :
 1996 : Kratt's Creatures
@@ -545,7 +559,9 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Martin Kratt se marie avec Laura Wilkinson avec qui il a deux enfants Gavin et Ronan, ils ont participé à un caméo dans Wild Kratt Kid's. Martin a sa licence de pilote d'avion.
 </t>
